--- a/cbrunner/Parameters/Parameters_ProductTypes.xlsx
+++ b/cbrunner/Parameters/Parameters_ProductTypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF356850-A020-4733-B4E3-507E6AD61B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59E5D40-E1AF-408F-9663-7AE84EC9042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,12 +354,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBDEFE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -427,18 +421,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -463,10 +445,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,7 +771,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,50 +790,50 @@
     <col min="12" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="21" t="s">
         <v>75</v>
       </c>
     </row>
